--- a/data/trans_dic/P1001-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>8,15%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,63</t>
+          <t>3,01; 5,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 12,3</t>
+          <t>4,96; 9,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 11,72</t>
+          <t>4,2; 7,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,4</t>
+          <t>4,0; 7,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 11,46</t>
+          <t>4,91; 8,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 20,78</t>
+          <t>12,23; 17,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,8; 21,74</t>
+          <t>10,27; 15,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,19; 16,87</t>
+          <t>8,83; 12,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 8,04</t>
+          <t>4,4; 6,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 14,71</t>
+          <t>9,36; 12,71</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 13,83</t>
+          <t>7,69; 10,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,75; 12,75</t>
+          <t>7,0; 9,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>7,26%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,46</t>
+          <t>4,55; 7,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,15</t>
+          <t>6,43; 10,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 8,43</t>
+          <t>3,62; 6,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 8,46</t>
+          <t>2,03; 5,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 8,74</t>
+          <t>5,9; 9,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,26; 18,29</t>
+          <t>13,51; 18,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 15,56</t>
+          <t>9,87; 14,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 12,79</t>
+          <t>9,45; 12,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,12</t>
+          <t>5,61; 7,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,21; 12,98</t>
+          <t>10,47; 13,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 11,08</t>
+          <t>7,36; 9,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,02; 9,9</t>
+          <t>4,66; 8,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,82%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 7,74</t>
+          <t>5,51; 9,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 10,16</t>
+          <t>3,91; 7,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,39</t>
+          <t>4,31; 8,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 6,67</t>
+          <t>6,61; 11,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,49</t>
+          <t>10,98; 15,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,51; 18,44</t>
+          <t>10,72; 15,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,87; 14,12</t>
+          <t>10,72; 15,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,53; 13,12</t>
+          <t>4,93; 12,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 7,9</t>
+          <t>8,8; 12,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,47; 13,4</t>
+          <t>7,87; 11,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 9,99</t>
+          <t>7,96; 11,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 9,4</t>
+          <t>5,83; 10,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,25%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,63</t>
+          <t>4,87; 8,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,45</t>
+          <t>5,75; 9,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,15</t>
+          <t>5,91; 9,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,69; 11,64</t>
+          <t>4,38; 7,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,98; 15,9</t>
+          <t>8,71; 12,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,75</t>
+          <t>12,28; 16,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,62</t>
+          <t>9,31; 13,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,53; 13,31</t>
+          <t>9,51; 14,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 12,12</t>
+          <t>7,27; 9,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,02</t>
+          <t>9,66; 12,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,05</t>
+          <t>8,28; 11,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 11,59</t>
+          <t>7,74; 10,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,21</t>
+          <t>5,25; 6,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,29</t>
+          <t>6,28; 8,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,5</t>
+          <t>5,26; 6,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,58</t>
+          <t>4,65; 6,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,71; 12,44</t>
+          <t>8,41; 10,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,28; 16,67</t>
+          <t>13,61; 15,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,31; 13,66</t>
+          <t>10,96; 13,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,26; 15,66</t>
+          <t>9,0; 12,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 9,86</t>
+          <t>7,11; 8,48</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,66; 12,62</t>
+          <t>10,2; 11,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,28; 11,0</t>
+          <t>8,5; 9,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,49; 11,12</t>
+          <t>7,07; 9,18</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,05%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,09%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,07%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>9,42%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>14,64%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>12,2%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>11,62%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>7,76%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>10,94%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>9,2%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>9,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>5,25; 6,93</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,28; 8,18</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,26; 6,95</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,35; 7,13</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>8,41; 10,46</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>13,61; 15,89</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>10,96; 13,47</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>10,36; 12,72</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>7,11; 8,48</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>10,2; 11,76</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>8,5; 9,9</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>8,32; 9,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P1001-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,95</t>
+          <t>2,9; 5,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,05</t>
+          <t>4,94; 8,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,92</t>
+          <t>4,19; 7,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,53</t>
+          <t>4,01; 7,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,61</t>
+          <t>5,07; 8,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,73</t>
+          <t>12,63; 18,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 15,47</t>
+          <t>10,12; 15,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,59</t>
+          <t>8,99; 12,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,84</t>
+          <t>4,44; 6,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,36; 12,71</t>
+          <t>9,28; 12,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 10,87</t>
+          <t>7,65; 10,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 9,53</t>
+          <t>6,97; 9,48</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 7,74</t>
+          <t>4,53; 7,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,43; 10,16</t>
+          <t>6,66; 10,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,39</t>
+          <t>3,7; 6,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,74</t>
+          <t>2,08; 5,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,49</t>
+          <t>6,01; 9,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,51; 18,44</t>
+          <t>13,45; 18,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,87; 14,12</t>
+          <t>10,09; 14,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,45; 12,95</t>
+          <t>9,6; 13,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 7,9</t>
+          <t>5,82; 8,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,47; 13,4</t>
+          <t>10,61; 13,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 9,99</t>
+          <t>7,27; 9,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,68</t>
+          <t>4,76; 8,6</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,63</t>
+          <t>5,45; 9,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,45</t>
+          <t>3,84; 7,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,15</t>
+          <t>4,33; 8,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,55</t>
+          <t>6,3; 11,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,98; 15,9</t>
+          <t>10,88; 16,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,75</t>
+          <t>10,78; 15,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,62</t>
+          <t>10,69; 15,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 12,33</t>
+          <t>4,75; 12,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 12,12</t>
+          <t>8,74; 12,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,02</t>
+          <t>7,77; 10,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,05</t>
+          <t>8,04; 11,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,83; 10,75</t>
+          <t>5,92; 10,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,21</t>
+          <t>5,0; 8,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,29</t>
+          <t>5,78; 9,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,5</t>
+          <t>5,91; 9,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,81</t>
+          <t>4,26; 7,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 12,44</t>
+          <t>8,49; 12,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,28; 16,67</t>
+          <t>11,99; 16,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,31; 13,66</t>
+          <t>9,38; 13,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,51; 14,5</t>
+          <t>9,8; 14,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 9,86</t>
+          <t>7,22; 9,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,66; 12,62</t>
+          <t>9,55; 12,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,28; 11,0</t>
+          <t>8,2; 10,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,74; 10,56</t>
+          <t>7,86; 10,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,25; 6,93</t>
+          <t>5,26; 6,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,18</t>
+          <t>6,24; 8,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 6,95</t>
+          <t>5,34; 6,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 6,77</t>
+          <t>4,43; 6,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,46</t>
+          <t>8,38; 10,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,61; 15,89</t>
+          <t>13,51; 15,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,96; 13,47</t>
+          <t>11,11; 13,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,0; 12,02</t>
+          <t>8,89; 11,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,11; 8,48</t>
+          <t>7,1; 8,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,2; 11,76</t>
+          <t>10,17; 11,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,5; 9,9</t>
+          <t>8,53; 9,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 9,18</t>
+          <t>7,25; 9,2</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que hizo menos de lo que hubiera querido por problemas emocionales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29865</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>47701</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>39383</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>34891</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>45715</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>104901</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>84940</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>71888</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>75579</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>152602</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>124324</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>106778</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20110; 41551</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>34773; 61404</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>28292; 53533</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>25512; 48803</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>34923; 58567</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>88029; 126387</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>68074; 102756</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>60697; 84037</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>61313; 92981</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>129902; 178832</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>103067; 145630</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>91287; 124234</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>57591</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>83373</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>50812</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>49308</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>73651</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>162821</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>126107</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>106745</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>131243</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>246195</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>176920</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>156053</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>43551; 73608</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>67735; 104291</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>37874; 65533</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24814; 69585</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>58185; 92075</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>138876; 186800</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>105211; 150267</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>91891; 125514</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>112359; 156199</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>217363; 276909</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>150153; 204954</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>102443; 184979</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>49652</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41168</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>45020</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>60795</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>91161</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>102244</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>102398</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>83664</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>140813</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>143412</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>147418</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>144459</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>36985; 64653</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29114; 57897</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32865; 61114</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>44402; 79493</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>74372; 110432</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>83652; 123361</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>83882; 122990</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>44342; 116286</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>119107; 163740</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>119163; 167690</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>124163; 172588</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>97018; 176142</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>61131</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>70421</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>70759</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>53997</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>107748</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>150778</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>118814</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>132704</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>168879</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>221199</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>189573</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>186701</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>47153; 77211</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>54718; 89940</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>55378; 86859</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>39393; 69973</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>88189; 126241</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>126020; 175276</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>97924; 144557</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>107220; 155004</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>142930; 195577</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>190828; 248058</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>162535; 215872</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>158767; 216926</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>198238</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>242663</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>205975</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>198990</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>318275</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>520744</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>432259</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>395001</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>516514</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>763407</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>638234</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>593991</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>172453; 225005</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>213601; 277081</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>181184; 236112</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>153091; 230943</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>283244; 354868</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>480563; 566098</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>393719; 471155</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>325389; 436584</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>472859; 560462</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>709853; 815980</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>592027; 686199</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>516011; 654703</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>